--- a/04.sum-of-array/resource/compare calc sum-of-array.xlsx
+++ b/04.sum-of-array/resource/compare calc sum-of-array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AeroCode\Desktop\MyProject\node-napi-tutorial\04.sum-of-array\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D496789D-76CF-471D-8178-A2E6AC48824D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7D5FB8-AB6C-4515-A0B3-41AB4359137B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{495E4641-9371-49E1-9625-91E4161970A5}"/>
   </bookViews>
@@ -736,8 +736,8 @@
                   </c15:spPr>
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.38058535141488886"/>
-                      <c:h val="7.797090999998188E-2"/>
+                      <c:w val="0.3984476217270474"/>
+                      <c:h val="4.792176355763185E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -796,8 +796,8 @@
                   </c15:spPr>
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.6582737062749443"/>
-                      <c:h val="6.359076177829788E-2"/>
+                      <c:w val="0.67668078090443962"/>
+                      <c:h val="5.1659810637010306E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -856,8 +856,8 @@
                   </c15:spPr>
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.25593595948446662"/>
-                      <c:h val="6.359076177829788E-2"/>
+                      <c:w val="0.27229780359957351"/>
+                      <c:h val="5.9135904795767233E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -916,8 +916,8 @@
                   </c15:spPr>
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.52094565661481496"/>
-                      <c:h val="5.4964122091769908E-2"/>
+                      <c:w val="0.53686882294085136"/>
+                      <c:h val="5.5397857716388769E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -976,8 +976,8 @@
                   </c15:spPr>
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.1516292032506604"/>
-                      <c:h val="6.359076177829788E-2"/>
+                      <c:w val="0.14410275495771124"/>
+                      <c:h val="4.792176355763185E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1036,8 +1036,8 @@
                   </c15:spPr>
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.39026669966949395"/>
-                      <c:h val="6.8192119359940281E-2"/>
+                      <c:w val="0.40662854378460084"/>
+                      <c:h val="5.5397857716388769E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1418,23 +1418,7 @@
       <c:legendPos val="b"/>
       <c:legendEntry>
         <c:idx val="3"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
+        <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2589,8 +2573,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>14653</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2618,15 +2602,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2932</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>207350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>209548</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2954,7 +2938,7 @@
   <dimension ref="B1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3222,18 +3206,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3255,6 +3239,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FCEE90F-47AC-44EC-AE83-3091D9608E0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ECB2419-4549-41F4-A2F0-D5D48E12DC82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3268,12 +3260,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FCEE90F-47AC-44EC-AE83-3091D9608E0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>